--- a/my-excel/src/test/resources/excel/easyexcel-test-01.xlsx
+++ b/my-excel/src/test/resources/excel/easyexcel-test-01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhuang\git\my-excel\my-excel\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\my-excel\my-excel\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF964FB2-33B7-4D10-AFB8-DF385D9E5C80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A129E33-A5F2-49A2-A8CA-2AAB81715C3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>{.name}</t>
+    <t>{userList.name}</t>
   </si>
   <si>
-    <t>{.age}</t>
+    <t>{userList.age}</t>
   </si>
 </sst>
 </file>
@@ -376,10 +376,10 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -401,7 +401,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -414,7 +414,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/my-excel/src/test/resources/excel/easyexcel-test-01.xlsx
+++ b/my-excel/src/test/resources/excel/easyexcel-test-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\my-excel\my-excel\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A129E33-A5F2-49A2-A8CA-2AAB81715C3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D931EE-B509-492F-BC7C-E8B27477C8C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>{userList.name}</t>
   </si>
   <si>
     <t>{userList.age}</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>总数</t>
+  </si>
+  <si>
+    <t>{total}</t>
   </si>
 </sst>
 </file>
@@ -373,19 +385,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" activeCellId="1" sqref="C1 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
